--- a/biology/Botanique/Beccariophoenix_fenestralis/Beccariophoenix_fenestralis.xlsx
+++ b/biology/Botanique/Beccariophoenix_fenestralis/Beccariophoenix_fenestralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beccariophoenix fenestralis est une espèce de plante de la famille des Arecaceae. Il a été décrit comme une espèce distincte de Beccariophoenix madagascariensis en 2014  [2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beccariophoenix fenestralis est une espèce de plante de la famille des Arecaceae. Il a été décrit comme une espèce distincte de Beccariophoenix madagascariensis en 2014  .
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beccariophoenix fenestralis est un palmier qui peut atteindre environ 10 mètres de haut [3].
-Il diffère de B. madagascariensis lorsqu'il est un semis, par ses feuilles très larges, pour la plupart non fendues, tandis que le B. madagascariensis a des feuilles dressées entièrement divisées et très rigides lorsqu'il est jeune [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beccariophoenix fenestralis est un palmier qui peut atteindre environ 10 mètres de haut .
+Il diffère de B. madagascariensis lorsqu'il est un semis, par ses feuilles très larges, pour la plupart non fendues, tandis que le B. madagascariensis a des feuilles dressées entièrement divisées et très rigides lorsqu'il est jeune .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Aire de répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beccariophoenix fenestralis est connu dans un seul endroit à Brickaville, dans la région d'Atsinanana, poussant dans une forêt humide de plaine à 140 mètres d'altitude[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beccariophoenix fenestralis est connu dans un seul endroit à Brickaville, dans la région d'Atsinanana, poussant dans une forêt humide de plaine à 140 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Conservation et menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'existe qu'une seule population connue de cette espèce, avec une zone d'occupation (AOO) de 4 km 2 . Il est menacé par la récolte de plantes matures et la perte d'habitat due à l'agriculture itinérante. Son habitat n'est pas protégé. Son état de conservation est évalué comme étant en danger critique d'extinction[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe qu'une seule population connue de cette espèce, avec une zone d'occupation (AOO) de 4 km 2 . Il est menacé par la récolte de plantes matures et la perte d'habitat due à l'agriculture itinérante. Son habitat n'est pas protégé. Son état de conservation est évalué comme étant en danger critique d'extinction.
 </t>
         </is>
       </c>
